--- a/techniqo/data_new_ticker/TCNSBRANDS.xlsx
+++ b/techniqo/data_new_ticker/TCNSBRANDS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G524"/>
+  <dimension ref="A1:G526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18726,6 +18726,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>394.55</v>
+      </c>
+      <c r="C525" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="D525" t="n">
+        <v>390.05</v>
+      </c>
+      <c r="E525" t="n">
+        <v>400.9</v>
+      </c>
+      <c r="F525" t="n">
+        <v>106318</v>
+      </c>
+      <c r="G525" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>401.05</v>
+      </c>
+      <c r="C526" t="n">
+        <v>404.7</v>
+      </c>
+      <c r="D526" t="n">
+        <v>387.2</v>
+      </c>
+      <c r="E526" t="n">
+        <v>400.45</v>
+      </c>
+      <c r="F526" t="n">
+        <v>28939</v>
+      </c>
+      <c r="G526" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/TCNSBRANDS.xlsx
+++ b/techniqo/data_new_ticker/TCNSBRANDS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G526"/>
+  <dimension ref="A1:G528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18776,6 +18776,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>400</v>
+      </c>
+      <c r="C527" t="n">
+        <v>403.75</v>
+      </c>
+      <c r="D527" t="n">
+        <v>390</v>
+      </c>
+      <c r="E527" t="n">
+        <v>393.85</v>
+      </c>
+      <c r="F527" t="n">
+        <v>19985</v>
+      </c>
+      <c r="G527" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>397.45</v>
+      </c>
+      <c r="C528" t="n">
+        <v>399.8</v>
+      </c>
+      <c r="D528" t="n">
+        <v>390.05</v>
+      </c>
+      <c r="E528" t="n">
+        <v>394.45</v>
+      </c>
+      <c r="F528" t="n">
+        <v>29918</v>
+      </c>
+      <c r="G528" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
